--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F454ED-B619-46B2-B329-0FCBB7809355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08132F43-9B07-400B-A02A-BD31DB5DB013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonSearch" sheetId="31" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="484">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3212,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8B4174-6619-4ECF-9EB9-2E3EB85DF41E}">
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3629,6 +3629,128 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4548,12 +4670,12 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="7" max="7" width="14.1796875" customWidth="1"/>
     <col min="22" max="22" width="9.453125" customWidth="1"/>
     <col min="23" max="23" width="25.1796875" customWidth="1"/>
@@ -4782,7 +4904,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6816,7 +6938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E5CD21-4921-4656-A4C6-67E5BD8ED8F2}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08132F43-9B07-400B-A02A-BD31DB5DB013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24B06BD-5641-45E6-B8DC-A3ECDB339CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonSearch" sheetId="31" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="484">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -3214,7 +3214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8B4174-6619-4ECF-9EB9-2E3EB85DF41E}">
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -10898,10 +10898,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393619C5-7D79-4C5C-B0DE-2E5FFDE5BE9C}">
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AZ5"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="AZ5" sqref="AZ5"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10958,7 +10958,7 @@
     <col min="50" max="50" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>18</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="T4" s="10" t="s">
         <v>18</v>
@@ -11577,8 +11577,11 @@
       <c r="AY4" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="AZ4" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -11744,10 +11747,13 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="19.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -11810,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24B06BD-5641-45E6-B8DC-A3ECDB339CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24613CB0-B080-4BB7-B544-EBBBE06DCEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="486">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1535,6 +1535,12 @@
   </si>
   <si>
     <t>SOCIAL_HISTORY_NARRATIVE</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>PREGNANT_CHECKBOX</t>
   </si>
 </sst>
 </file>
@@ -2766,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D212D3B-3C13-4D55-9A1E-2E0474690A50}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10898,10 +10904,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393619C5-7D79-4C5C-B0DE-2E5FFDE5BE9C}">
-  <dimension ref="A1:AZ5"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10924,41 +10930,42 @@
     <col min="16" max="16" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.1796875" customWidth="1"/>
     <col min="18" max="18" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="42.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.81640625" customWidth="1"/>
-    <col min="27" max="27" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36" customWidth="1"/>
-    <col min="35" max="35" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.26953125" customWidth="1"/>
+    <col min="20" max="20" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.81640625" customWidth="1"/>
+    <col min="28" max="28" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="35" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36" customWidth="1"/>
+    <col min="36" max="36" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11014,106 +11021,109 @@
         <v>57</v>
       </c>
       <c r="S1" t="s">
+        <v>485</v>
+      </c>
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>62</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>71</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>72</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>74</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>77</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>78</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>79</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>80</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>82</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>83</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>84</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>85</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>86</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>87</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>8</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>88</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -11168,65 +11178,62 @@
       <c r="R2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="U2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="AC2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="AG2" s="7" t="s">
         <v>108</v>
       </c>
       <c r="AH2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="AM2" s="7" t="s">
         <v>24</v>
@@ -11259,16 +11266,19 @@
         <v>24</v>
       </c>
       <c r="AW2" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY2" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AZ2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
@@ -11323,12 +11333,9 @@
       <c r="R3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="T3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="U3" s="14" t="s">
         <v>18</v>
       </c>
@@ -11345,11 +11352,11 @@
         <v>18</v>
       </c>
       <c r="Z3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="AB3" s="14" t="s">
         <v>18</v>
       </c>
@@ -11414,16 +11421,19 @@
         <v>18</v>
       </c>
       <c r="AW3" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="AY3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -11479,11 +11489,11 @@
         <v>18</v>
       </c>
       <c r="S4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="U4" s="10" t="s">
         <v>18</v>
       </c>
@@ -11569,19 +11579,22 @@
         <v>18</v>
       </c>
       <c r="AW4" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AY4" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AZ4" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA4" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -11636,12 +11649,10 @@
       <c r="R5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="U5" s="10" t="s">
         <v>18</v>
       </c>
@@ -11658,11 +11669,11 @@
         <v>18</v>
       </c>
       <c r="Z5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="AB5" s="10" t="s">
         <v>18</v>
       </c>
@@ -11727,12 +11738,15 @@
         <v>18</v>
       </c>
       <c r="AW5" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX5" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11865,7 +11879,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11944,7 +11958,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>484</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24613CB0-B080-4BB7-B544-EBBBE06DCEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB712CCF-162C-47B6-89AA-EF2AE4370908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="487">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1541,6 +1541,9 @@
   </si>
   <si>
     <t>PREGNANT_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PRIOR_GUARDIANSHIP</t>
   </si>
 </sst>
 </file>
@@ -10906,8 +10909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393619C5-7D79-4C5C-B0DE-2E5FFDE5BE9C}">
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10963,6 +10966,8 @@
     <col min="49" max="49" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.1796875" customWidth="1"/>
+    <col min="53" max="53" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.35">
@@ -11121,6 +11126,9 @@
       </c>
       <c r="AZ1" t="s">
         <v>89</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.35">

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB712CCF-162C-47B6-89AA-EF2AE4370908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A2BC7-4477-4034-B7AD-1AA7D0F3669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-550" yWindow="3930" windowWidth="19200" windowHeight="5800" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonSearch" sheetId="31" r:id="rId1"/>
@@ -10909,8 +10909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393619C5-7D79-4C5C-B0DE-2E5FFDE5BE9C}">
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A2BC7-4477-4034-B7AD-1AA7D0F3669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C0F13-9412-45C5-B6DB-E5EADE1186DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-550" yWindow="3930" windowWidth="19200" windowHeight="5800" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-550" yWindow="3930" windowWidth="19200" windowHeight="5800" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonSearch" sheetId="31" r:id="rId1"/>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D212D3B-3C13-4D55-9A1E-2E0474690A50}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3058,25 +3058,25 @@
         <v>195</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="W3" s="10" t="s">
         <v>16</v>
@@ -10909,8 +10909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393619C5-7D79-4C5C-B0DE-2E5FFDE5BE9C}">
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C0F13-9412-45C5-B6DB-E5EADE1186DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FED7B-3CE6-4071-A325-05F439513C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-550" yWindow="3930" windowWidth="19200" windowHeight="5800" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D212D3B-3C13-4D55-9A1E-2E0474690A50}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3085,10 +3085,10 @@
         <v>18</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>24</v>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FED7B-3CE6-4071-A325-05F439513C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148F3A79-0E38-4C46-B948-1087E860859F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-550" yWindow="3930" windowWidth="19200" windowHeight="5800" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D212D3B-3C13-4D55-9A1E-2E0474690A50}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3091,16 +3091,16 @@
         <v>16</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="AD3" s="10" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="AE3" s="10" t="s">
         <v>16</v>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148F3A79-0E38-4C46-B948-1087E860859F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711A606-9AE8-442B-910A-FD1E9E40DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-550" yWindow="3930" windowWidth="19200" windowHeight="5800" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D212D3B-3C13-4D55-9A1E-2E0474690A50}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3138,10 +3138,10 @@
         <v>93</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>18</v>
@@ -3198,10 +3198,10 @@
         <v>18</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="AD4" s="10" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="AE4" s="10" t="s">
         <v>16</v>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711A606-9AE8-442B-910A-FD1E9E40DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4C61A4-791D-4176-AC24-F2D20EA7531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-550" yWindow="3930" windowWidth="19200" windowHeight="5800" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-540" yWindow="5170" windowWidth="19200" windowHeight="5800" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonSearch" sheetId="31" r:id="rId1"/>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D212D3B-3C13-4D55-9A1E-2E0474690A50}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3138,7 +3138,7 @@
         <v>93</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>18</v>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4C61A4-791D-4176-AC24-F2D20EA7531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4E9F9-5833-463A-8BD7-00D91859382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-540" yWindow="5170" windowWidth="19200" windowHeight="5800" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-330" yWindow="3680" windowWidth="19200" windowHeight="5800" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonSearch" sheetId="31" r:id="rId1"/>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D212D3B-3C13-4D55-9A1E-2E0474690A50}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3141,7 +3141,7 @@
         <v>93</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>18</v>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4E9F9-5833-463A-8BD7-00D91859382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB1E3E-BEBA-4A03-85EB-18E517792606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="3680" windowWidth="19200" windowHeight="5800" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-360" yWindow="4570" windowWidth="19200" windowHeight="5800" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonSearch" sheetId="31" r:id="rId1"/>
@@ -1537,13 +1537,13 @@
     <t>SOCIAL_HISTORY_NARRATIVE</t>
   </si>
   <si>
-    <t>outcome</t>
-  </si>
-  <si>
     <t>PREGNANT_CHECKBOX</t>
   </si>
   <si>
     <t>PRIOR_GUARDIANSHIP</t>
+  </si>
+  <si>
+    <t>Outcome</t>
   </si>
 </sst>
 </file>
@@ -2775,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D212D3B-3C13-4D55-9A1E-2E0474690A50}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -5156,8 +5156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F217AB-7625-415E-807B-0747F7DBCB7F}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5284,7 +5284,7 @@
         <v>18</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>15</v>
@@ -5346,7 +5346,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>18</v>
@@ -5361,7 +5361,7 @@
         <v>18</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>18</v>
@@ -5413,8 +5413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EB2B94-3304-4D5D-B135-C9797C543A9C}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11026,7 +11026,7 @@
         <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T1" t="s">
         <v>58</v>
@@ -11128,7 +11128,7 @@
         <v>89</v>
       </c>
       <c r="BA1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -11886,8 +11886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E44BAE7-2D17-4013-AD1B-CEB91F49F710}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11966,7 +11966,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -12092,6 +12092,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12308,15 +12317,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12328,6 +12328,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A525561-8EA7-4C06-A246-723F2DBEC800}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8307229E-6D4C-4EB5-A457-5907D682CD7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12346,14 +12354,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A525561-8EA7-4C06-A246-723F2DBEC800}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF8A1FBD-558F-4A66-BC7E-7B5DC9D4BE98}">
   <ds:schemaRefs>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB1E3E-BEBA-4A03-85EB-18E517792606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671B015E-3F11-42DA-8951-EF96C2258063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="4570" windowWidth="19200" windowHeight="5800" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-360" yWindow="4570" windowWidth="19200" windowHeight="5800" firstSheet="16" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PersonSearch" sheetId="31" r:id="rId1"/>
@@ -925,9 +925,6 @@
     <t>Chlorine Allergy</t>
   </si>
   <si>
-    <t>Drug Allergy</t>
-  </si>
-  <si>
     <t>Person_PersonAllergiesID</t>
   </si>
   <si>
@@ -1544,6 +1541,9 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t>Dust Allergy</t>
   </si>
 </sst>
 </file>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="4" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -4678,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E59E339-E753-4348-9264-7728E930B5BE}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>280</v>
+        <v>486</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>120</v>
@@ -4900,7 +4900,7 @@
         <v>16</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4944,16 +4944,16 @@
         <v>233</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="K1" t="s">
         <v>253</v>
@@ -4962,13 +4962,13 @@
         <v>254</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>288</v>
       </c>
       <c r="P1" t="s">
         <v>260</v>
@@ -4986,7 +4986,7 @@
         <v>276</v>
       </c>
       <c r="U1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V1" t="s">
         <v>8</v>
@@ -4995,12 +4995,12 @@
         <v>191</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -5018,7 +5018,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>120</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -5143,7 +5143,7 @@
         <v>16</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5192,7 +5192,7 @@
         <v>233</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>255</v>
@@ -5210,7 +5210,7 @@
         <v>257</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>259</v>
@@ -5219,10 +5219,10 @@
         <v>260</v>
       </c>
       <c r="P1" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>295</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>296</v>
       </c>
       <c r="R1" t="s">
         <v>261</v>
@@ -5246,12 +5246,12 @@
         <v>191</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -5269,7 +5269,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>18</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -5400,7 +5400,7 @@
         <v>16</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5413,7 +5413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EB2B94-3304-4D5D-B135-C9797C543A9C}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5459,10 +5459,10 @@
         <v>233</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>253</v>
@@ -5471,19 +5471,19 @@
         <v>254</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>303</v>
-      </c>
       <c r="M1" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>260</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>261</v>
@@ -5492,13 +5492,13 @@
         <v>262</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>276</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>265</v>
@@ -5510,12 +5510,12 @@
         <v>191</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -5658,7 +5658,7 @@
         <v>16</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5703,13 +5703,13 @@
         <v>233</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>253</v>
@@ -5718,10 +5718,10 @@
         <v>254</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>260</v>
@@ -5733,13 +5733,13 @@
         <v>262</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>276</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>8</v>
@@ -5748,12 +5748,12 @@
         <v>191</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -5771,7 +5771,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>120</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -5839,7 +5839,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>120</v>
@@ -5884,7 +5884,7 @@
         <v>16</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5931,7 +5931,7 @@
         <v>233</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>133</v>
@@ -5949,7 +5949,7 @@
         <v>260</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>261</v>
@@ -5961,7 +5961,7 @@
         <v>265</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>276</v>
@@ -5973,12 +5973,12 @@
         <v>191</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -6103,7 +6103,7 @@
         <v>16</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6152,16 +6152,16 @@
         <v>201</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>233</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>259</v>
@@ -6176,10 +6176,10 @@
         <v>257</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>120</v>
@@ -6247,7 +6247,7 @@
         <v>93</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>18</v>
@@ -6314,7 +6314,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>256</v>
@@ -6356,7 +6356,7 @@
         <v>191</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>93</v>
@@ -6385,7 +6385,7 @@
         <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>93</v>
@@ -6435,7 +6435,7 @@
         <v>93</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>16</v>
@@ -6473,7 +6473,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>93</v>
@@ -6515,7 +6515,7 @@
         <v>16</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -6571,7 +6571,7 @@
         <v>233</v>
       </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1" t="s">
         <v>253</v>
@@ -6583,10 +6583,10 @@
         <v>257</v>
       </c>
       <c r="K1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M1" t="s">
         <v>259</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6648,7 +6648,7 @@
         <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O2" t="s">
         <v>16</v>
@@ -6689,7 +6689,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>18</v>
@@ -6710,7 +6710,7 @@
         <v>93</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>18</v>
@@ -6790,7 +6790,7 @@
         <v>257</v>
       </c>
       <c r="I1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
         <v>260</v>
@@ -6808,13 +6808,13 @@
         <v>276</v>
       </c>
       <c r="O1" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" t="s">
         <v>332</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>333</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>334</v>
       </c>
       <c r="R1" t="s">
         <v>264</v>
@@ -6846,7 +6846,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -6864,7 +6864,7 @@
         <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R2" t="s">
         <v>100</v>
@@ -6905,7 +6905,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>18</v>
@@ -6964,25 +6964,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" t="s">
         <v>479</v>
       </c>
-      <c r="E1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>480</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>481</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>482</v>
       </c>
-      <c r="I1" t="s">
-        <v>483</v>
-      </c>
       <c r="J1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -7059,10 +7059,10 @@
         <v>233</v>
       </c>
       <c r="G1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" t="s">
         <v>336</v>
-      </c>
-      <c r="H1" t="s">
-        <v>337</v>
       </c>
       <c r="I1" t="s">
         <v>253</v>
@@ -7071,16 +7071,16 @@
         <v>254</v>
       </c>
       <c r="K1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" t="s">
         <v>338</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>339</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>340</v>
-      </c>
-      <c r="N1" t="s">
-        <v>341</v>
       </c>
       <c r="O1" t="s">
         <v>259</v>
@@ -7101,7 +7101,7 @@
         <v>276</v>
       </c>
       <c r="U1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V1" t="s">
         <v>264</v>
@@ -7148,7 +7148,7 @@
         <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q2" t="s">
         <v>16</v>
@@ -7292,25 +7292,25 @@
         <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F1" t="s">
         <v>233</v>
       </c>
       <c r="G1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" t="s">
         <v>344</v>
-      </c>
-      <c r="H1" t="s">
-        <v>345</v>
       </c>
       <c r="I1" t="s">
         <v>257</v>
       </c>
       <c r="J1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L1" t="s">
         <v>259</v>
@@ -7343,7 +7343,7 @@
         <v>191</v>
       </c>
       <c r="V1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -7357,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H2" t="s">
         <v>93</v>
@@ -7375,7 +7375,7 @@
         <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N2" t="s">
         <v>16</v>
@@ -7419,7 +7419,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>93</v>
@@ -7437,7 +7437,7 @@
         <v>93</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>16</v>
@@ -7484,7 +7484,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>93</v>
@@ -7529,7 +7529,7 @@
         <v>16</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7592,10 +7592,10 @@
         <v>233</v>
       </c>
       <c r="G1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" t="s">
         <v>336</v>
-      </c>
-      <c r="H1" t="s">
-        <v>337</v>
       </c>
       <c r="I1" t="s">
         <v>253</v>
@@ -7604,19 +7604,19 @@
         <v>254</v>
       </c>
       <c r="K1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L1" t="s">
         <v>259</v>
       </c>
       <c r="M1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N1" t="s">
         <v>340</v>
       </c>
-      <c r="N1" t="s">
-        <v>341</v>
-      </c>
       <c r="O1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P1" t="s">
         <v>260</v>
@@ -7634,7 +7634,7 @@
         <v>276</v>
       </c>
       <c r="U1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V1" t="s">
         <v>264</v>
@@ -7684,7 +7684,7 @@
         <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q2" t="s">
         <v>16</v>
@@ -7863,7 +7863,7 @@
         <v>191</v>
       </c>
       <c r="Q1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -8007,7 +8007,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>239</v>
       </c>
       <c r="L1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M1" t="s">
         <v>352</v>
-      </c>
-      <c r="M1" t="s">
-        <v>353</v>
       </c>
       <c r="N1" t="s">
         <v>240</v>
@@ -8084,7 +8084,7 @@
         <v>191</v>
       </c>
       <c r="S1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -8113,7 +8113,7 @@
         <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N2" t="s">
         <v>100</v>
@@ -8122,7 +8122,7 @@
         <v>244</v>
       </c>
       <c r="P2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q2" t="s">
         <v>16</v>
@@ -8175,7 +8175,7 @@
         <v>244</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>16</v>
@@ -8243,7 +8243,7 @@
         <v>16</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -8281,10 +8281,10 @@
         <v>237</v>
       </c>
       <c r="G1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" t="s">
         <v>352</v>
-      </c>
-      <c r="H1" t="s">
-        <v>353</v>
       </c>
       <c r="I1" t="s">
         <v>240</v>
@@ -8313,10 +8313,10 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I2" t="s">
         <v>100</v>
@@ -8325,7 +8325,7 @@
         <v>244</v>
       </c>
       <c r="K2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -8371,22 +8371,22 @@
         <v>233</v>
       </c>
       <c r="G1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" t="s">
         <v>358</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>359</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>360</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>361</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>362</v>
-      </c>
-      <c r="L1" t="s">
-        <v>363</v>
       </c>
       <c r="M1" t="s">
         <v>253</v>
@@ -8416,7 +8416,7 @@
         <v>262</v>
       </c>
       <c r="V1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W1" t="s">
         <v>264</v>
@@ -8428,7 +8428,7 @@
         <v>191</v>
       </c>
       <c r="Z1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
@@ -8462,7 +8462,7 @@
     </row>
     <row r="3" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -8480,10 +8480,10 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>366</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>120</v>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="4" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>16</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -8664,10 +8664,10 @@
         <v>233</v>
       </c>
       <c r="G1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" t="s">
         <v>368</v>
-      </c>
-      <c r="H1" t="s">
-        <v>369</v>
       </c>
       <c r="I1" t="s">
         <v>253</v>
@@ -8676,22 +8676,22 @@
         <v>254</v>
       </c>
       <c r="K1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L1" t="s">
         <v>259</v>
       </c>
       <c r="M1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s">
         <v>261</v>
@@ -8700,7 +8700,7 @@
         <v>262</v>
       </c>
       <c r="S1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T1" t="s">
         <v>276</v>
@@ -8718,7 +8718,7 @@
         <v>191</v>
       </c>
       <c r="Y1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
@@ -8746,7 +8746,7 @@
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -8764,7 +8764,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>120</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="4" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -8895,7 +8895,7 @@
         <v>16</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -8944,31 +8944,31 @@
         <v>233</v>
       </c>
       <c r="G1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" t="s">
         <v>374</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>375</v>
-      </c>
-      <c r="I1" t="s">
-        <v>376</v>
       </c>
       <c r="J1" t="s">
         <v>257</v>
       </c>
       <c r="K1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L1" t="s">
         <v>377</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>378</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>379</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>380</v>
-      </c>
-      <c r="O1" t="s">
-        <v>381</v>
       </c>
       <c r="P1" t="s">
         <v>261</v>
@@ -8977,7 +8977,7 @@
         <v>262</v>
       </c>
       <c r="R1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S1" t="s">
         <v>276</v>
@@ -8998,12 +8998,12 @@
         <v>191</v>
       </c>
       <c r="Y1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -9122,7 +9122,7 @@
         <v>18</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>18</v>
@@ -9152,7 +9152,7 @@
         <v>16</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -9204,16 +9204,16 @@
         <v>233</v>
       </c>
       <c r="G1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" t="s">
         <v>385</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>386</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>387</v>
-      </c>
-      <c r="J1" t="s">
-        <v>388</v>
       </c>
       <c r="K1" t="s">
         <v>261</v>
@@ -9222,7 +9222,7 @@
         <v>262</v>
       </c>
       <c r="M1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N1" t="s">
         <v>276</v>
@@ -9231,7 +9231,7 @@
         <v>260</v>
       </c>
       <c r="P1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q1" t="s">
         <v>151</v>
@@ -9240,7 +9240,7 @@
         <v>152</v>
       </c>
       <c r="S1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T1" t="s">
         <v>59</v>
@@ -9249,10 +9249,10 @@
         <v>145</v>
       </c>
       <c r="V1" t="s">
+        <v>390</v>
+      </c>
+      <c r="W1" t="s">
         <v>391</v>
-      </c>
-      <c r="W1" t="s">
-        <v>392</v>
       </c>
       <c r="X1" t="s">
         <v>3</v>
@@ -9264,12 +9264,12 @@
         <v>8</v>
       </c>
       <c r="AA1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -9320,13 +9320,13 @@
         <v>100</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S2" s="16">
         <v>97818</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U2" s="10">
         <v>9807654321</v>
@@ -9335,7 +9335,7 @@
         <v>95</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>15</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="3" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -9373,7 +9373,7 @@
         <v>120</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>18</v>
@@ -9430,7 +9430,7 @@
         <v>16</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -9552,7 +9552,7 @@
         <v>233</v>
       </c>
       <c r="G1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1" t="s">
         <v>257</v>
@@ -9561,7 +9561,7 @@
         <v>264</v>
       </c>
       <c r="J1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K1" t="s">
         <v>261</v>
@@ -9570,7 +9570,7 @@
         <v>262</v>
       </c>
       <c r="M1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N1" t="s">
         <v>260</v>
@@ -9591,12 +9591,12 @@
         <v>269</v>
       </c>
       <c r="T1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -9697,25 +9697,25 @@
         <v>18</v>
       </c>
       <c r="N3" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>403</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -9769,31 +9769,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" t="s">
         <v>405</v>
-      </c>
-      <c r="E1" t="s">
-        <v>406</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
       </c>
       <c r="G1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" t="s">
         <v>407</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>408</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>409</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>410</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>411</v>
-      </c>
-      <c r="L1" t="s">
-        <v>412</v>
       </c>
       <c r="M1" t="s">
         <v>133</v>
@@ -9802,28 +9802,28 @@
         <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P1" t="s">
         <v>8</v>
       </c>
       <c r="Q1" t="s">
+        <v>413</v>
+      </c>
+      <c r="R1" t="s">
         <v>414</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>415</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>416</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>417</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>418</v>
-      </c>
-      <c r="V1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -9846,22 +9846,22 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="L2" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>93</v>
@@ -9936,25 +9936,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E1" t="s">
         <v>40</v>
       </c>
       <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
         <v>424</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>425</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>426</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>427</v>
-      </c>
-      <c r="J1" t="s">
-        <v>428</v>
       </c>
       <c r="K1" t="s">
         <v>168</v>
@@ -9966,7 +9966,7 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -9986,16 +9986,16 @@
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>107</v>
@@ -10051,37 +10051,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>437</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>440</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>441</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>133</v>
@@ -10090,33 +10090,33 @@
         <v>134</v>
       </c>
       <c r="Q1" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>120</v>
@@ -10172,7 +10172,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>120</v>
@@ -10237,7 +10237,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>16</v>
@@ -10255,7 +10255,7 @@
         <v>120</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q4" t="s">
         <v>18</v>
@@ -10304,13 +10304,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>133</v>
@@ -10319,13 +10319,13 @@
         <v>134</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>452</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>453</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>8</v>
@@ -10348,7 +10348,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>93</v>
@@ -10424,10 +10424,10 @@
         <v>134</v>
       </c>
       <c r="J1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K1" t="s">
         <v>455</v>
-      </c>
-      <c r="K1" t="s">
-        <v>456</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -10436,7 +10436,7 @@
         <v>191</v>
       </c>
       <c r="N1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -10468,7 +10468,7 @@
         <v>120</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>100</v>
@@ -10512,19 +10512,19 @@
         <v>120</v>
       </c>
       <c r="J3" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -10556,7 +10556,7 @@
         <v>93</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>100</v>
@@ -10602,7 +10602,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -10653,16 +10653,16 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
         <v>233</v>
       </c>
       <c r="G1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" t="s">
         <v>463</v>
-      </c>
-      <c r="H1" t="s">
-        <v>464</v>
       </c>
       <c r="I1" t="s">
         <v>133</v>
@@ -10742,7 +10742,7 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
         <v>233</v>
@@ -11026,7 +11026,7 @@
         <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="T1" t="s">
         <v>58</v>
@@ -11128,7 +11128,7 @@
         <v>89</v>
       </c>
       <c r="BA1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -11788,40 +11788,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" t="s">
         <v>466</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>467</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>468</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>469</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>470</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>471</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>472</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>473</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>474</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>475</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>476</v>
-      </c>
-      <c r="O1" t="s">
-        <v>477</v>
       </c>
       <c r="P1" t="s">
         <v>191</v>
@@ -11886,8 +11886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E44BAE7-2D17-4013-AD1B-CEB91F49F710}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11900,6 +11900,8 @@
     <col min="8" max="8" width="10.81640625" customWidth="1"/>
     <col min="9" max="9" width="12.1796875" customWidth="1"/>
     <col min="10" max="10" width="22.54296875" customWidth="1"/>
+    <col min="11" max="11" width="30.453125" customWidth="1"/>
+    <col min="12" max="12" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -11966,7 +11968,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
